--- a/document/大量データを扱う管理システムテスト仕様書.xlsx
+++ b/document/大量データを扱う管理システムテスト仕様書.xlsx
@@ -19,7 +19,7 @@
     <t>作成者</t>
   </si>
   <si>
-    <t>伊賀将之</t>
+    <t>熊谷茉佑</t>
   </si>
   <si>
     <t>作成日</t>
@@ -1488,7 +1488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border/>
     <border>
       <left style="medium">
@@ -1825,6 +1825,17 @@
       </bottom>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1850,7 +1861,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1866,7 +1877,7 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1876,7 +1887,7 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1911,6 +1922,9 @@
     <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="24" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2017,6 +2031,7 @@
     </xf>
     <xf borderId="33" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2336,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="12">
-        <v>44707.0</v>
+        <v>44960.0</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="1"/>
@@ -2631,25 +2646,25 @@
       <c r="M10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
@@ -2667,61 +2682,61 @@
       <c r="J11" s="24"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="31" t="s">
+      <c r="Q11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="31" t="s">
+      <c r="R11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="S11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="31" t="s">
+      <c r="T11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="U11" s="31" t="s">
+      <c r="U11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="31" t="s">
+      <c r="V11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="W11" s="31" t="s">
+      <c r="W11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="X11" s="31" t="s">
+      <c r="X11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="Y11" s="31" t="s">
+      <c r="Y11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="31" t="s">
+      <c r="Z11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AA11" s="31" t="s">
+      <c r="AA11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AB11" s="31" t="s">
+      <c r="AB11" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AC11" s="31" t="s">
+      <c r="AC11" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AD11" s="31" t="s">
+      <c r="AD11" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AE11" s="32" t="s">
+      <c r="AE11" s="33" t="s">
         <v>43</v>
       </c>
       <c r="AF11" s="1"/>
@@ -2740,27 +2755,27 @@
       <c r="J12" s="24"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="33" t="s">
+      <c r="M12" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="36"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
@@ -2777,57 +2792,57 @@
       <c r="J13" s="24"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="36" t="s">
+      <c r="M13" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="N13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="37" t="s">
+      <c r="O13" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="37" t="s">
+      <c r="P13" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="37" t="s">
+      <c r="Q13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="S13" s="37" t="s">
+      <c r="S13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="T13" s="37" t="s">
+      <c r="T13" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="U13" s="37" t="s">
+      <c r="U13" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="V13" s="37" t="s">
+      <c r="V13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="W13" s="37" t="s">
+      <c r="W13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="X13" s="37" t="s">
+      <c r="X13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Y13" s="37" t="s">
+      <c r="Y13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Z13" s="37" t="s">
+      <c r="Z13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AA13" s="37" t="s">
+      <c r="AA13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AB13" s="37" t="s">
+      <c r="AB13" s="38" t="s">
         <v>46</v>
       </c>
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
-      <c r="AE13" s="38"/>
+      <c r="AE13" s="39"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
@@ -2844,57 +2859,57 @@
       <c r="J14" s="27"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="36" t="s">
+      <c r="M14" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="37" t="s">
+      <c r="P14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="Q14" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="S14" s="37" t="s">
+      <c r="S14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="T14" s="37" t="s">
+      <c r="T14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="U14" s="37" t="s">
+      <c r="U14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="V14" s="37" t="s">
+      <c r="V14" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="W14" s="37" t="s">
+      <c r="W14" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="X14" s="37" t="s">
+      <c r="X14" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Y14" s="37" t="s">
+      <c r="Y14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Z14" s="37" t="s">
+      <c r="Z14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AA14" s="37" t="s">
+      <c r="AA14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AB14" s="37" t="s">
+      <c r="AB14" s="38" t="s">
         <v>46</v>
       </c>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
-      <c r="AE14" s="38"/>
+      <c r="AE14" s="39"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
@@ -2923,57 +2938,57 @@
       <c r="J15" s="21"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="36" t="s">
+      <c r="M15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="N15" s="37" t="s">
+      <c r="N15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="37" t="s">
+      <c r="O15" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P15" s="37" t="s">
+      <c r="P15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="37" t="s">
+      <c r="Q15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="37" t="s">
+      <c r="R15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="S15" s="37" t="s">
+      <c r="S15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="T15" s="37" t="s">
+      <c r="T15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="U15" s="37" t="s">
+      <c r="U15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="V15" s="37" t="s">
+      <c r="V15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="W15" s="37" t="s">
+      <c r="W15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="X15" s="37" t="s">
+      <c r="X15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Y15" s="37" t="s">
+      <c r="Y15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Z15" s="37" t="s">
+      <c r="Z15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AA15" s="37" t="s">
+      <c r="AA15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AB15" s="37" t="s">
+      <c r="AB15" s="38" t="s">
         <v>46</v>
       </c>
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
-      <c r="AE15" s="38"/>
+      <c r="AE15" s="39"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
@@ -2990,57 +3005,57 @@
       <c r="J16" s="24"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="36" t="s">
+      <c r="M16" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="O16" s="37" t="s">
+      <c r="O16" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P16" s="37" t="s">
+      <c r="P16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Q16" s="37" t="s">
+      <c r="Q16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="37" t="s">
+      <c r="R16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="S16" s="37" t="s">
+      <c r="S16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="T16" s="37" t="s">
+      <c r="T16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="U16" s="37" t="s">
+      <c r="U16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="V16" s="37" t="s">
+      <c r="V16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="W16" s="37" t="s">
+      <c r="W16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="X16" s="37" t="s">
+      <c r="X16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Y16" s="37" t="s">
+      <c r="Y16" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z16" s="37" t="s">
+      <c r="Z16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AA16" s="37" t="s">
+      <c r="AA16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AB16" s="37" t="s">
+      <c r="AB16" s="38" t="s">
         <v>46</v>
       </c>
       <c r="AC16" s="11"/>
       <c r="AD16" s="11"/>
-      <c r="AE16" s="38"/>
+      <c r="AE16" s="39"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
@@ -3057,57 +3072,57 @@
       <c r="J17" s="24"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="36" t="s">
+      <c r="M17" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="O17" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="P17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" s="37" t="s">
+      <c r="Q17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="R17" s="37" t="s">
+      <c r="R17" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="S17" s="37" t="s">
+      <c r="S17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="T17" s="37" t="s">
+      <c r="T17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="U17" s="37" t="s">
+      <c r="U17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="V17" s="37" t="s">
+      <c r="V17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="W17" s="37" t="s">
+      <c r="W17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="X17" s="37" t="s">
+      <c r="X17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="37" t="s">
+      <c r="Y17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Z17" s="37" t="s">
+      <c r="Z17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AA17" s="37" t="s">
+      <c r="AA17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AB17" s="37" t="s">
+      <c r="AB17" s="38" t="s">
         <v>46</v>
       </c>
       <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
-      <c r="AE17" s="38"/>
+      <c r="AE17" s="39"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
@@ -3124,57 +3139,57 @@
       <c r="J18" s="24"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="36" t="s">
+      <c r="M18" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="N18" s="37" t="s">
+      <c r="N18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="37" t="s">
+      <c r="O18" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P18" s="37" t="s">
+      <c r="P18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Q18" s="37" t="s">
+      <c r="Q18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="R18" s="37" t="s">
+      <c r="R18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="S18" s="37" t="s">
+      <c r="S18" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="T18" s="37" t="s">
+      <c r="T18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="U18" s="37" t="s">
+      <c r="U18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="V18" s="37" t="s">
+      <c r="V18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="W18" s="37" t="s">
+      <c r="W18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="X18" s="37" t="s">
+      <c r="X18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Y18" s="37" t="s">
+      <c r="Y18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Z18" s="37" t="s">
+      <c r="Z18" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AA18" s="37" t="s">
+      <c r="AA18" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AB18" s="37" t="s">
+      <c r="AB18" s="38" t="s">
         <v>46</v>
       </c>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
-      <c r="AE18" s="38"/>
+      <c r="AE18" s="39"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
@@ -3191,57 +3206,57 @@
       <c r="J19" s="27"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="36" t="s">
+      <c r="M19" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="N19" s="37" t="s">
+      <c r="N19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="37" t="s">
+      <c r="O19" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P19" s="37" t="s">
+      <c r="P19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Q19" s="37" t="s">
+      <c r="Q19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="R19" s="37" t="s">
+      <c r="R19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="S19" s="37" t="s">
+      <c r="S19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="T19" s="37" t="s">
+      <c r="T19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="U19" s="37" t="s">
+      <c r="U19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="V19" s="37" t="s">
+      <c r="V19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="W19" s="37" t="s">
+      <c r="W19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="X19" s="37" t="s">
+      <c r="X19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Y19" s="37" t="s">
+      <c r="Y19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Z19" s="37" t="s">
+      <c r="Z19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AA19" s="37" t="s">
+      <c r="AA19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AB19" s="37" t="s">
+      <c r="AB19" s="38" t="s">
         <v>48</v>
       </c>
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
-      <c r="AE19" s="38"/>
+      <c r="AE19" s="39"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
@@ -3270,57 +3285,57 @@
       <c r="J20" s="21"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="36" t="s">
+      <c r="M20" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="N20" s="37" t="s">
+      <c r="N20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="O20" s="37" t="s">
+      <c r="O20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="P20" s="37" t="s">
+      <c r="P20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="37" t="s">
+      <c r="Q20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R20" s="37" t="s">
+      <c r="R20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="S20" s="37" t="s">
+      <c r="S20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="T20" s="37" t="s">
+      <c r="T20" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="U20" s="37" t="s">
+      <c r="U20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="V20" s="37" t="s">
+      <c r="V20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="W20" s="37" t="s">
+      <c r="W20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="X20" s="37" t="s">
+      <c r="X20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Y20" s="37" t="s">
+      <c r="Y20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z20" s="37" t="s">
+      <c r="Z20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="37" t="s">
+      <c r="AA20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AB20" s="37" t="s">
+      <c r="AB20" s="38" t="s">
         <v>48</v>
       </c>
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
-      <c r="AE20" s="38"/>
+      <c r="AE20" s="39"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
@@ -3337,62 +3352,62 @@
       <c r="J21" s="24"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="36" t="s">
+      <c r="M21" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="N21" s="37" t="s">
+      <c r="N21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="O21" s="37" t="s">
+      <c r="O21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="37" t="s">
+      <c r="P21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="37" t="s">
+      <c r="Q21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R21" s="37" t="s">
+      <c r="R21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="S21" s="37" t="s">
+      <c r="S21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="T21" s="37" t="s">
+      <c r="T21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="U21" s="37" t="s">
+      <c r="U21" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="V21" s="37" t="s">
+      <c r="V21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="W21" s="37" t="s">
+      <c r="W21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="X21" s="37" t="s">
+      <c r="X21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Y21" s="37" t="s">
+      <c r="Y21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z21" s="37" t="s">
+      <c r="Z21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AA21" s="37" t="s">
+      <c r="AA21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AB21" s="37" t="s">
+      <c r="AB21" s="38" t="s">
         <v>48</v>
       </c>
       <c r="AC21" s="11"/>
       <c r="AD21" s="11"/>
-      <c r="AE21" s="38"/>
+      <c r="AE21" s="39"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
     <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="39"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -3402,64 +3417,64 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="24"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="36" t="s">
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="N22" s="37" t="s">
+      <c r="N22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="37" t="s">
+      <c r="O22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="37" t="s">
+      <c r="P22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Q22" s="37" t="s">
+      <c r="Q22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R22" s="37" t="s">
+      <c r="R22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="S22" s="37" t="s">
+      <c r="S22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="T22" s="37" t="s">
+      <c r="T22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="U22" s="37" t="s">
+      <c r="U22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="V22" s="37" t="s">
+      <c r="V22" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="W22" s="37" t="s">
+      <c r="W22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="X22" s="37" t="s">
+      <c r="X22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Y22" s="37" t="s">
+      <c r="Y22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z22" s="37" t="s">
+      <c r="Z22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AA22" s="37" t="s">
+      <c r="AA22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AB22" s="37" t="s">
+      <c r="AB22" s="38" t="s">
         <v>48</v>
       </c>
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
     </row>
     <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="39"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -3469,64 +3484,64 @@
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="24"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="36" t="s">
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="37" t="s">
+      <c r="N23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="O23" s="37" t="s">
+      <c r="O23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="37" t="s">
+      <c r="P23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Q23" s="37" t="s">
+      <c r="Q23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R23" s="37" t="s">
+      <c r="R23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="S23" s="37" t="s">
+      <c r="S23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="T23" s="37" t="s">
+      <c r="T23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="U23" s="37" t="s">
+      <c r="U23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="V23" s="37" t="s">
+      <c r="V23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="W23" s="37" t="s">
+      <c r="W23" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="X23" s="37" t="s">
+      <c r="X23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Y23" s="37" t="s">
+      <c r="Y23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z23" s="37" t="s">
+      <c r="Z23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AA23" s="37" t="s">
+      <c r="AA23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AB23" s="37" t="s">
+      <c r="AB23" s="38" t="s">
         <v>48</v>
       </c>
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
     </row>
     <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="39"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -3536,64 +3551,64 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="36" t="s">
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="N24" s="37" t="s">
+      <c r="N24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="O24" s="37" t="s">
+      <c r="O24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="P24" s="37" t="s">
+      <c r="P24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Q24" s="37" t="s">
+      <c r="Q24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="37" t="s">
+      <c r="R24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="S24" s="37" t="s">
+      <c r="S24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="T24" s="37" t="s">
+      <c r="T24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="U24" s="37" t="s">
+      <c r="U24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="V24" s="37" t="s">
+      <c r="V24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="W24" s="37" t="s">
+      <c r="W24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="X24" s="37" t="s">
+      <c r="X24" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Y24" s="37" t="s">
+      <c r="Y24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z24" s="37" t="s">
+      <c r="Z24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AA24" s="37" t="s">
+      <c r="AA24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AB24" s="37" t="s">
+      <c r="AB24" s="38" t="s">
         <v>48</v>
       </c>
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
     </row>
     <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="39"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="17" t="s">
         <v>13</v>
       </c>
@@ -3612,67 +3627,67 @@
       <c r="G25" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="36" t="s">
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="N25" s="37" t="s">
+      <c r="N25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="O25" s="37" t="s">
+      <c r="O25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="P25" s="37" t="s">
+      <c r="P25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Q25" s="37" t="s">
+      <c r="Q25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R25" s="37" t="s">
+      <c r="R25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="S25" s="37" t="s">
+      <c r="S25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="T25" s="37" t="s">
+      <c r="T25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="U25" s="37" t="s">
+      <c r="U25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="V25" s="37" t="s">
+      <c r="V25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="W25" s="37" t="s">
+      <c r="W25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="X25" s="37" t="s">
+      <c r="X25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Y25" s="37" t="s">
+      <c r="Y25" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Z25" s="37" t="s">
+      <c r="Z25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AA25" s="37" t="s">
+      <c r="AA25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AB25" s="37" t="s">
+      <c r="AB25" s="38" t="s">
         <v>48</v>
       </c>
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
     </row>
     <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -3682,64 +3697,64 @@
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="24"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="36" t="s">
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="N26" s="37" t="s">
+      <c r="N26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="37" t="s">
+      <c r="O26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="P26" s="37" t="s">
+      <c r="P26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Q26" s="37" t="s">
+      <c r="Q26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R26" s="37" t="s">
+      <c r="R26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="37" t="s">
+      <c r="S26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="T26" s="37" t="s">
+      <c r="T26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="U26" s="37" t="s">
+      <c r="U26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="V26" s="37" t="s">
+      <c r="V26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="W26" s="37" t="s">
+      <c r="W26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="X26" s="37" t="s">
+      <c r="X26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Y26" s="37" t="s">
+      <c r="Y26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z26" s="37" t="s">
+      <c r="Z26" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AA26" s="37" t="s">
+      <c r="AA26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AB26" s="37" t="s">
+      <c r="AB26" s="38" t="s">
         <v>48</v>
       </c>
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
     </row>
     <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="39"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -3749,64 +3764,64 @@
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="24"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="36" t="s">
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="N27" s="37" t="s">
+      <c r="N27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="37" t="s">
+      <c r="O27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="P27" s="37" t="s">
+      <c r="P27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Q27" s="37" t="s">
+      <c r="Q27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R27" s="37" t="s">
+      <c r="R27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="S27" s="37" t="s">
+      <c r="S27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="T27" s="37" t="s">
+      <c r="T27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="U27" s="37" t="s">
+      <c r="U27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="V27" s="37" t="s">
+      <c r="V27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="W27" s="37" t="s">
+      <c r="W27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="X27" s="37" t="s">
+      <c r="X27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Y27" s="37" t="s">
+      <c r="Y27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z27" s="37" t="s">
+      <c r="Z27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AA27" s="37" t="s">
+      <c r="AA27" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AB27" s="37" t="s">
+      <c r="AB27" s="38" t="s">
         <v>48</v>
       </c>
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="40"/>
+      <c r="AG27" s="40"/>
     </row>
     <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="39"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -3816,64 +3831,64 @@
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="24"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="36" t="s">
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="N28" s="37" t="s">
+      <c r="N28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="O28" s="37" t="s">
+      <c r="O28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="P28" s="37" t="s">
+      <c r="P28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Q28" s="37" t="s">
+      <c r="Q28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R28" s="37" t="s">
+      <c r="R28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="S28" s="37" t="s">
+      <c r="S28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="T28" s="37" t="s">
+      <c r="T28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="U28" s="37" t="s">
+      <c r="U28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="V28" s="37" t="s">
+      <c r="V28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="W28" s="37" t="s">
+      <c r="W28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="X28" s="37" t="s">
+      <c r="X28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Y28" s="37" t="s">
+      <c r="Y28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z28" s="37" t="s">
+      <c r="Z28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AA28" s="37" t="s">
+      <c r="AA28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AB28" s="37" t="s">
+      <c r="AB28" s="38" t="s">
         <v>46</v>
       </c>
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="40"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="39"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -3883,9 +3898,9 @@
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="27"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="36"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="37"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
@@ -3903,12 +3918,12 @@
       <c r="AB29" s="11"/>
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
-      <c r="AE29" s="38"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="39"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="40"/>
+      <c r="AG29" s="40"/>
     </row>
     <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="17" t="s">
         <v>13</v>
       </c>
@@ -3927,12 +3942,12 @@
       <c r="G30" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="42"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
@@ -3950,12 +3965,12 @@
       <c r="AB30" s="11"/>
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
-      <c r="AE30" s="38"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="40"/>
+      <c r="AG30" s="40"/>
     </row>
     <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="39"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -3964,35 +3979,35 @@
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="43" t="s">
+      <c r="J31" s="24"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="39"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="40"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -4001,65 +4016,65 @@
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="36" t="s">
+      <c r="J32" s="24"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="N32" s="37" t="s">
+      <c r="N32" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O32" s="37" t="s">
+      <c r="O32" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P32" s="37" t="s">
+      <c r="P32" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Q32" s="37" t="s">
+      <c r="Q32" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="R32" s="37" t="s">
+      <c r="R32" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="S32" s="37" t="s">
+      <c r="S32" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="T32" s="37" t="s">
+      <c r="T32" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="U32" s="37" t="s">
+      <c r="U32" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="V32" s="37" t="s">
+      <c r="V32" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="W32" s="37" t="s">
+      <c r="W32" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="X32" s="37" t="s">
+      <c r="X32" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Y32" s="37" t="s">
+      <c r="Y32" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Z32" s="37" t="s">
+      <c r="Z32" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AA32" s="37" t="s">
+      <c r="AA32" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AB32" s="37" t="s">
+      <c r="AB32" s="38" t="s">
         <v>47</v>
       </c>
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="40"/>
+      <c r="AG32" s="40"/>
     </row>
     <row r="33" ht="16.5" customHeight="1">
-      <c r="A33" s="39"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
@@ -4068,65 +4083,65 @@
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="36" t="s">
+      <c r="J33" s="24"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="N33" s="37" t="s">
+      <c r="N33" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O33" s="37" t="s">
+      <c r="O33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P33" s="37" t="s">
+      <c r="P33" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q33" s="37" t="s">
+      <c r="Q33" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="R33" s="37" t="s">
+      <c r="R33" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="S33" s="37" t="s">
+      <c r="S33" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="T33" s="37" t="s">
+      <c r="T33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="U33" s="37" t="s">
+      <c r="U33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="V33" s="37" t="s">
+      <c r="V33" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="W33" s="37" t="s">
+      <c r="W33" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="X33" s="37" t="s">
+      <c r="X33" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Y33" s="37" t="s">
+      <c r="Y33" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Z33" s="37" t="s">
+      <c r="Z33" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AA33" s="37" t="s">
+      <c r="AA33" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AB33" s="37" t="s">
+      <c r="AB33" s="38" t="s">
         <v>47</v>
       </c>
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
-      <c r="AE33" s="38"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="40"/>
     </row>
     <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="39"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -4135,65 +4150,65 @@
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="36" t="s">
+      <c r="J34" s="27"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="N34" s="37" t="s">
+      <c r="N34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="37" t="s">
+      <c r="O34" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P34" s="37" t="s">
+      <c r="P34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q34" s="37" t="s">
+      <c r="Q34" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="R34" s="37" t="s">
+      <c r="R34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="S34" s="37" t="s">
+      <c r="S34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="T34" s="37" t="s">
+      <c r="T34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="U34" s="37" t="s">
+      <c r="U34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="V34" s="37" t="s">
+      <c r="V34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="W34" s="37" t="s">
+      <c r="W34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="X34" s="37" t="s">
+      <c r="X34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Y34" s="37" t="s">
+      <c r="Y34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Z34" s="37" t="s">
+      <c r="Z34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AA34" s="37" t="s">
+      <c r="AA34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AB34" s="37" t="s">
+      <c r="AB34" s="38" t="s">
         <v>47</v>
       </c>
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="39"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="40"/>
+      <c r="AG34" s="40"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="39"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="17" t="s">
         <v>13</v>
       </c>
@@ -4212,67 +4227,67 @@
       <c r="G35" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="36" t="s">
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="N35" s="37" t="s">
+      <c r="N35" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O35" s="37" t="s">
+      <c r="O35" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P35" s="37" t="s">
+      <c r="P35" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q35" s="37" t="s">
+      <c r="Q35" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="R35" s="37" t="s">
+      <c r="R35" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="S35" s="37" t="s">
+      <c r="S35" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="T35" s="37" t="s">
+      <c r="T35" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="U35" s="37" t="s">
+      <c r="U35" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="V35" s="37" t="s">
+      <c r="V35" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="W35" s="37" t="s">
+      <c r="W35" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="X35" s="37" t="s">
+      <c r="X35" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Y35" s="37" t="s">
+      <c r="Y35" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Z35" s="37" t="s">
+      <c r="Z35" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AA35" s="37" t="s">
+      <c r="AA35" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AB35" s="37" t="s">
+      <c r="AB35" s="38" t="s">
         <v>47</v>
       </c>
       <c r="AC35" s="11"/>
       <c r="AD35" s="11"/>
-      <c r="AE35" s="38"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="40"/>
+      <c r="AG35" s="40"/>
     </row>
     <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="39"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -4282,64 +4297,64 @@
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
       <c r="J36" s="24"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="36" t="s">
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="N36" s="37" t="s">
+      <c r="N36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O36" s="37" t="s">
+      <c r="O36" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P36" s="37" t="s">
+      <c r="P36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q36" s="37" t="s">
+      <c r="Q36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="R36" s="37" t="s">
+      <c r="R36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="S36" s="37" t="s">
+      <c r="S36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="T36" s="37" t="s">
+      <c r="T36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="U36" s="37" t="s">
+      <c r="U36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="V36" s="37" t="s">
+      <c r="V36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="W36" s="37" t="s">
+      <c r="W36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="X36" s="37" t="s">
+      <c r="X36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Y36" s="37" t="s">
+      <c r="Y36" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Z36" s="37" t="s">
+      <c r="Z36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AA36" s="37" t="s">
+      <c r="AA36" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AB36" s="37" t="s">
+      <c r="AB36" s="38" t="s">
         <v>47</v>
       </c>
       <c r="AC36" s="11"/>
       <c r="AD36" s="11"/>
-      <c r="AE36" s="38"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="40"/>
+      <c r="AG36" s="40"/>
     </row>
     <row r="37" ht="16.5" customHeight="1">
-      <c r="A37" s="39"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -4349,64 +4364,64 @@
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
       <c r="J37" s="24"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="36" t="s">
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="37" t="s">
+      <c r="N37" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O37" s="37" t="s">
+      <c r="O37" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P37" s="37" t="s">
+      <c r="P37" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q37" s="37" t="s">
+      <c r="Q37" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="R37" s="37" t="s">
+      <c r="R37" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="S37" s="37" t="s">
+      <c r="S37" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="T37" s="37" t="s">
+      <c r="T37" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="U37" s="37" t="s">
+      <c r="U37" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="V37" s="37" t="s">
+      <c r="V37" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="W37" s="37" t="s">
+      <c r="W37" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="X37" s="37" t="s">
+      <c r="X37" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Y37" s="37" t="s">
+      <c r="Y37" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Z37" s="37" t="s">
+      <c r="Z37" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AA37" s="37" t="s">
+      <c r="AA37" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AB37" s="37" t="s">
+      <c r="AB37" s="38" t="s">
         <v>47</v>
       </c>
       <c r="AC37" s="11"/>
       <c r="AD37" s="11"/>
-      <c r="AE37" s="38"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="40"/>
+      <c r="AG37" s="40"/>
     </row>
     <row r="38" ht="16.5" customHeight="1">
-      <c r="A38" s="39"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
@@ -4416,64 +4431,64 @@
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
       <c r="J38" s="24"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="36" t="s">
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="N38" s="37" t="s">
+      <c r="N38" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O38" s="37" t="s">
+      <c r="O38" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P38" s="37" t="s">
+      <c r="P38" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="37" t="s">
+      <c r="Q38" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="R38" s="37" t="s">
+      <c r="R38" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="S38" s="37" t="s">
+      <c r="S38" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="T38" s="37" t="s">
+      <c r="T38" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="U38" s="37" t="s">
+      <c r="U38" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="V38" s="37" t="s">
+      <c r="V38" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="W38" s="37" t="s">
+      <c r="W38" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="X38" s="37" t="s">
+      <c r="X38" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Y38" s="37" t="s">
+      <c r="Y38" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Z38" s="37" t="s">
+      <c r="Z38" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AA38" s="37" t="s">
+      <c r="AA38" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AB38" s="37" t="s">
+      <c r="AB38" s="38" t="s">
         <v>47</v>
       </c>
       <c r="AC38" s="11"/>
       <c r="AD38" s="11"/>
-      <c r="AE38" s="38"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="39"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="40"/>
+      <c r="AG38" s="40"/>
     </row>
     <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="39"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -4483,64 +4498,64 @@
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
       <c r="J39" s="27"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="36" t="s">
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="N39" s="37" t="s">
+      <c r="N39" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O39" s="37" t="s">
+      <c r="O39" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P39" s="37" t="s">
+      <c r="P39" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q39" s="37" t="s">
+      <c r="Q39" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="R39" s="37" t="s">
+      <c r="R39" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="S39" s="37" t="s">
+      <c r="S39" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="T39" s="37" t="s">
+      <c r="T39" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="U39" s="37" t="s">
+      <c r="U39" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="V39" s="37" t="s">
+      <c r="V39" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="W39" s="37" t="s">
+      <c r="W39" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="X39" s="37" t="s">
+      <c r="X39" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Y39" s="37" t="s">
+      <c r="Y39" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Z39" s="37" t="s">
+      <c r="Z39" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AA39" s="37" t="s">
+      <c r="AA39" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AB39" s="37" t="s">
+      <c r="AB39" s="38" t="s">
         <v>47</v>
       </c>
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
-      <c r="AE39" s="38"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="40"/>
+      <c r="AG39" s="40"/>
     </row>
     <row r="40" ht="16.5" customHeight="1">
-      <c r="A40" s="39"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="17" t="s">
         <v>13</v>
       </c>
@@ -4559,67 +4574,67 @@
       <c r="G40" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="46" t="s">
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="N40" s="37" t="s">
+      <c r="N40" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O40" s="37" t="s">
+      <c r="O40" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P40" s="37" t="s">
+      <c r="P40" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q40" s="37" t="s">
+      <c r="Q40" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="R40" s="37" t="s">
+      <c r="R40" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="S40" s="37" t="s">
+      <c r="S40" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="T40" s="37" t="s">
+      <c r="T40" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="U40" s="37" t="s">
+      <c r="U40" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="V40" s="37" t="s">
+      <c r="V40" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="W40" s="37" t="s">
+      <c r="W40" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="X40" s="37" t="s">
+      <c r="X40" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Y40" s="37" t="s">
+      <c r="Y40" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Z40" s="37" t="s">
+      <c r="Z40" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AA40" s="37" t="s">
+      <c r="AA40" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AB40" s="37" t="s">
+      <c r="AB40" s="38" t="s">
         <v>46</v>
       </c>
       <c r="AC40" s="11"/>
       <c r="AD40" s="11"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="39"/>
-      <c r="AG40" s="39"/>
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="40"/>
+      <c r="AG40" s="40"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
-      <c r="A41" s="39"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="22"/>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
@@ -4629,64 +4644,64 @@
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="47" t="s">
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="N41" s="37" t="s">
+      <c r="N41" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="O41" s="37" t="s">
+      <c r="O41" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P41" s="37" t="s">
+      <c r="P41" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q41" s="37" t="s">
+      <c r="Q41" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="R41" s="37" t="s">
+      <c r="R41" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="S41" s="37" t="s">
+      <c r="S41" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="T41" s="37" t="s">
+      <c r="T41" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="U41" s="37" t="s">
+      <c r="U41" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="V41" s="37" t="s">
+      <c r="V41" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="W41" s="37" t="s">
+      <c r="W41" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="X41" s="37" t="s">
+      <c r="X41" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Y41" s="37" t="s">
+      <c r="Y41" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Z41" s="37" t="s">
+      <c r="Z41" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AA41" s="37" t="s">
+      <c r="AA41" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AB41" s="37" t="s">
+      <c r="AB41" s="38" t="s">
         <v>47</v>
       </c>
       <c r="AC41" s="11"/>
       <c r="AD41" s="11"/>
-      <c r="AE41" s="38"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="40"/>
+      <c r="AG41" s="40"/>
     </row>
     <row r="42" ht="16.5" customHeight="1">
-      <c r="A42" s="39"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
@@ -4696,64 +4711,64 @@
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
       <c r="J42" s="24"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="48" t="s">
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="N42" s="49" t="s">
+      <c r="N42" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="O42" s="49" t="s">
+      <c r="O42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="P42" s="49" t="s">
+      <c r="P42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="Q42" s="49" t="s">
+      <c r="Q42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="R42" s="49" t="s">
+      <c r="R42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="S42" s="49" t="s">
+      <c r="S42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="T42" s="49" t="s">
+      <c r="T42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="U42" s="49" t="s">
+      <c r="U42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="V42" s="49" t="s">
+      <c r="V42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="W42" s="49" t="s">
+      <c r="W42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="X42" s="49" t="s">
+      <c r="X42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="Y42" s="49" t="s">
+      <c r="Y42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="Z42" s="49" t="s">
+      <c r="Z42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AA42" s="49" t="s">
+      <c r="AA42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AB42" s="49" t="s">
+      <c r="AB42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="51"/>
-      <c r="AF42" s="39"/>
-      <c r="AG42" s="39"/>
+      <c r="AC42" s="51"/>
+      <c r="AD42" s="51"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="40"/>
+      <c r="AG42" s="40"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="39"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="22"/>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -4763,8 +4778,8 @@
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
       <c r="J43" s="24"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -4784,11 +4799,11 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
-      <c r="AF43" s="39"/>
-      <c r="AG43" s="39"/>
+      <c r="AF43" s="40"/>
+      <c r="AG43" s="40"/>
     </row>
     <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="39"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
@@ -4798,8 +4813,8 @@
       <c r="H44" s="26"/>
       <c r="I44" s="26"/>
       <c r="J44" s="27"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -4819,8 +4834,8 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
-      <c r="AF44" s="39"/>
-      <c r="AG44" s="39"/>
+      <c r="AF44" s="40"/>
+      <c r="AG44" s="40"/>
     </row>
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="1"/>
@@ -4842,29 +4857,29 @@
       <c r="G45" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="42"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="52" t="s">
+      <c r="M45" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="N45" s="53"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
       <c r="AC45" s="7"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -4884,26 +4899,26 @@
       <c r="J46" s="24"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="36" t="s">
+      <c r="M46" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="N46" s="54" t="s">
+      <c r="N46" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="O46" s="55"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="55"/>
-      <c r="W46" s="55"/>
-      <c r="X46" s="55"/>
-      <c r="Y46" s="55"/>
-      <c r="Z46" s="55"/>
-      <c r="AA46" s="55"/>
-      <c r="AB46" s="55"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="56"/>
       <c r="AC46" s="13"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -4923,26 +4938,26 @@
       <c r="J47" s="24"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="36" t="s">
+      <c r="M47" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="N47" s="56" t="s">
+      <c r="N47" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="O47" s="55"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="55"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="55"/>
-      <c r="Z47" s="55"/>
-      <c r="AA47" s="55"/>
-      <c r="AB47" s="55"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="56"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="56"/>
+      <c r="AB47" s="56"/>
       <c r="AC47" s="13"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -4962,26 +4977,26 @@
       <c r="J48" s="24"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="36" t="s">
+      <c r="M48" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="N48" s="57" t="s">
+      <c r="N48" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="55"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="55"/>
-      <c r="W48" s="55"/>
-      <c r="X48" s="55"/>
-      <c r="Y48" s="55"/>
-      <c r="Z48" s="55"/>
-      <c r="AA48" s="55"/>
-      <c r="AB48" s="55"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
       <c r="AC48" s="13"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -5001,26 +5016,26 @@
       <c r="J49" s="27"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="36" t="s">
+      <c r="M49" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="N49" s="54" t="s">
+      <c r="N49" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="55"/>
-      <c r="Y49" s="55"/>
-      <c r="Z49" s="55"/>
-      <c r="AA49" s="55"/>
-      <c r="AB49" s="55"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="56"/>
       <c r="AC49" s="13"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -5047,31 +5062,31 @@
       <c r="G50" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="42"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="36" t="s">
+      <c r="M50" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="N50" s="54" t="s">
+      <c r="N50" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="O50" s="55"/>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="55"/>
-      <c r="W50" s="55"/>
-      <c r="X50" s="55"/>
-      <c r="Y50" s="55"/>
-      <c r="Z50" s="55"/>
-      <c r="AA50" s="55"/>
-      <c r="AB50" s="55"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="56"/>
+      <c r="AB50" s="56"/>
       <c r="AC50" s="13"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -5091,26 +5106,26 @@
       <c r="J51" s="24"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="36" t="s">
+      <c r="M51" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="N51" s="58" t="s">
+      <c r="N51" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="O51" s="55"/>
-      <c r="P51" s="55"/>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="55"/>
-      <c r="S51" s="55"/>
-      <c r="T51" s="55"/>
-      <c r="U51" s="55"/>
-      <c r="V51" s="55"/>
-      <c r="W51" s="55"/>
-      <c r="X51" s="55"/>
-      <c r="Y51" s="55"/>
-      <c r="Z51" s="55"/>
-      <c r="AA51" s="55"/>
-      <c r="AB51" s="55"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
+      <c r="X51" s="56"/>
+      <c r="Y51" s="56"/>
+      <c r="Z51" s="56"/>
+      <c r="AA51" s="56"/>
+      <c r="AB51" s="56"/>
       <c r="AC51" s="13"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -5130,26 +5145,26 @@
       <c r="J52" s="24"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="36" t="s">
+      <c r="M52" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="N52" s="59" t="s">
+      <c r="N52" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="O52" s="55"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="55"/>
-      <c r="S52" s="55"/>
-      <c r="T52" s="55"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="55"/>
-      <c r="W52" s="55"/>
-      <c r="X52" s="55"/>
-      <c r="Y52" s="55"/>
-      <c r="Z52" s="55"/>
-      <c r="AA52" s="55"/>
-      <c r="AB52" s="55"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="56"/>
+      <c r="X52" s="56"/>
+      <c r="Y52" s="56"/>
+      <c r="Z52" s="56"/>
+      <c r="AA52" s="56"/>
+      <c r="AB52" s="56"/>
       <c r="AC52" s="13"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -5169,26 +5184,26 @@
       <c r="J53" s="24"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="36" t="s">
+      <c r="M53" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="N53" s="54" t="s">
+      <c r="N53" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="O53" s="55"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="55"/>
-      <c r="S53" s="55"/>
-      <c r="T53" s="55"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="55"/>
-      <c r="W53" s="55"/>
-      <c r="X53" s="55"/>
-      <c r="Y53" s="55"/>
-      <c r="Z53" s="55"/>
-      <c r="AA53" s="55"/>
-      <c r="AB53" s="55"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="56"/>
+      <c r="Z53" s="56"/>
+      <c r="AA53" s="56"/>
+      <c r="AB53" s="56"/>
       <c r="AC53" s="13"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -5208,26 +5223,26 @@
       <c r="J54" s="27"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="36" t="s">
+      <c r="M54" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="N54" s="59" t="s">
+      <c r="N54" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="55"/>
-      <c r="W54" s="55"/>
-      <c r="X54" s="55"/>
-      <c r="Y54" s="55"/>
-      <c r="Z54" s="55"/>
-      <c r="AA54" s="55"/>
-      <c r="AB54" s="55"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="56"/>
+      <c r="X54" s="56"/>
+      <c r="Y54" s="56"/>
+      <c r="Z54" s="56"/>
+      <c r="AA54" s="56"/>
+      <c r="AB54" s="56"/>
       <c r="AC54" s="13"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -5254,31 +5269,31 @@
       <c r="G55" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="42"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="36" t="s">
+      <c r="M55" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="N55" s="59" t="s">
+      <c r="N55" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="O55" s="55"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="55"/>
-      <c r="T55" s="55"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="55"/>
-      <c r="W55" s="55"/>
-      <c r="X55" s="55"/>
-      <c r="Y55" s="55"/>
-      <c r="Z55" s="55"/>
-      <c r="AA55" s="55"/>
-      <c r="AB55" s="55"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="56"/>
+      <c r="Y55" s="56"/>
+      <c r="Z55" s="56"/>
+      <c r="AA55" s="56"/>
+      <c r="AB55" s="56"/>
       <c r="AC55" s="13"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -5298,26 +5313,26 @@
       <c r="J56" s="24"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="36" t="s">
+      <c r="M56" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="N56" s="60">
+      <c r="N56" s="61">
         <v>0.9</v>
       </c>
-      <c r="O56" s="55"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="55"/>
-      <c r="T56" s="55"/>
-      <c r="U56" s="55"/>
-      <c r="V56" s="55"/>
-      <c r="W56" s="55"/>
-      <c r="X56" s="55"/>
-      <c r="Y56" s="55"/>
-      <c r="Z56" s="55"/>
-      <c r="AA56" s="55"/>
-      <c r="AB56" s="55"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="56"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="56"/>
+      <c r="V56" s="56"/>
+      <c r="W56" s="56"/>
+      <c r="X56" s="56"/>
+      <c r="Y56" s="56"/>
+      <c r="Z56" s="56"/>
+      <c r="AA56" s="56"/>
+      <c r="AB56" s="56"/>
       <c r="AC56" s="13"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -5337,26 +5352,26 @@
       <c r="J57" s="24"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="36" t="s">
+      <c r="M57" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="N57" s="60">
+      <c r="N57" s="61">
         <v>100001.0</v>
       </c>
-      <c r="O57" s="55"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="55"/>
-      <c r="T57" s="55"/>
-      <c r="U57" s="55"/>
-      <c r="V57" s="55"/>
-      <c r="W57" s="55"/>
-      <c r="X57" s="55"/>
-      <c r="Y57" s="55"/>
-      <c r="Z57" s="55"/>
-      <c r="AA57" s="55"/>
-      <c r="AB57" s="55"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="56"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="56"/>
+      <c r="V57" s="56"/>
+      <c r="W57" s="56"/>
+      <c r="X57" s="56"/>
+      <c r="Y57" s="56"/>
+      <c r="Z57" s="56"/>
+      <c r="AA57" s="56"/>
+      <c r="AB57" s="56"/>
       <c r="AC57" s="13"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -5376,26 +5391,26 @@
       <c r="J58" s="24"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="36" t="s">
+      <c r="M58" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="N58" s="54" t="s">
+      <c r="N58" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="O58" s="55"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="55"/>
-      <c r="S58" s="55"/>
-      <c r="T58" s="55"/>
-      <c r="U58" s="55"/>
-      <c r="V58" s="55"/>
-      <c r="W58" s="55"/>
-      <c r="X58" s="55"/>
-      <c r="Y58" s="55"/>
-      <c r="Z58" s="55"/>
-      <c r="AA58" s="55"/>
-      <c r="AB58" s="55"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="56"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="56"/>
+      <c r="V58" s="56"/>
+      <c r="W58" s="56"/>
+      <c r="X58" s="56"/>
+      <c r="Y58" s="56"/>
+      <c r="Z58" s="56"/>
+      <c r="AA58" s="56"/>
+      <c r="AB58" s="56"/>
       <c r="AC58" s="13"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -5415,26 +5430,26 @@
       <c r="J59" s="27"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="36" t="s">
+      <c r="M59" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="N59" s="58">
+      <c r="N59" s="59">
         <v>0.0</v>
       </c>
-      <c r="O59" s="55"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="55"/>
-      <c r="S59" s="55"/>
-      <c r="T59" s="55"/>
-      <c r="U59" s="55"/>
-      <c r="V59" s="55"/>
-      <c r="W59" s="55"/>
-      <c r="X59" s="55"/>
-      <c r="Y59" s="55"/>
-      <c r="Z59" s="55"/>
-      <c r="AA59" s="55"/>
-      <c r="AB59" s="55"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="56"/>
+      <c r="R59" s="56"/>
+      <c r="S59" s="56"/>
+      <c r="T59" s="56"/>
+      <c r="U59" s="56"/>
+      <c r="V59" s="56"/>
+      <c r="W59" s="56"/>
+      <c r="X59" s="56"/>
+      <c r="Y59" s="56"/>
+      <c r="Z59" s="56"/>
+      <c r="AA59" s="56"/>
+      <c r="AB59" s="56"/>
       <c r="AC59" s="13"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -5461,31 +5476,31 @@
       <c r="G60" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="42"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="36" t="s">
+      <c r="M60" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="N60" s="58">
+      <c r="N60" s="59">
         <v>49.0</v>
       </c>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="55"/>
-      <c r="U60" s="55"/>
-      <c r="V60" s="55"/>
-      <c r="W60" s="55"/>
-      <c r="X60" s="55"/>
-      <c r="Y60" s="55"/>
-      <c r="Z60" s="55"/>
-      <c r="AA60" s="55"/>
-      <c r="AB60" s="55"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="56"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="56"/>
+      <c r="T60" s="56"/>
+      <c r="U60" s="56"/>
+      <c r="V60" s="56"/>
+      <c r="W60" s="56"/>
+      <c r="X60" s="56"/>
+      <c r="Y60" s="56"/>
+      <c r="Z60" s="56"/>
+      <c r="AA60" s="56"/>
+      <c r="AB60" s="56"/>
       <c r="AC60" s="13"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -5505,27 +5520,27 @@
       <c r="J61" s="24"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="61" t="s">
+      <c r="M61" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="N61" s="62" t="s">
+      <c r="N61" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="O61" s="63"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="63"/>
-      <c r="R61" s="63"/>
-      <c r="S61" s="63"/>
-      <c r="T61" s="63"/>
-      <c r="U61" s="63"/>
-      <c r="V61" s="63"/>
-      <c r="W61" s="63"/>
-      <c r="X61" s="63"/>
-      <c r="Y61" s="63"/>
-      <c r="Z61" s="63"/>
-      <c r="AA61" s="63"/>
-      <c r="AB61" s="63"/>
-      <c r="AC61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="64"/>
+      <c r="R61" s="64"/>
+      <c r="S61" s="64"/>
+      <c r="T61" s="64"/>
+      <c r="U61" s="64"/>
+      <c r="V61" s="64"/>
+      <c r="W61" s="64"/>
+      <c r="X61" s="64"/>
+      <c r="Y61" s="64"/>
+      <c r="Z61" s="64"/>
+      <c r="AA61" s="64"/>
+      <c r="AB61" s="64"/>
+      <c r="AC61" s="65"/>
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
@@ -5579,7 +5594,7 @@
       <c r="J63" s="24"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="65"/>
+      <c r="M63" s="66"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -5793,12 +5808,12 @@
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="67"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="27"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -5980,12 +5995,12 @@
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="66"/>
-      <c r="J74" s="67"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="27"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -6167,12 +6182,12 @@
       <c r="B79" s="25"/>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="67"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="27"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -6354,12 +6369,12 @@
       <c r="B84" s="25"/>
       <c r="C84" s="26"/>
       <c r="D84" s="26"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="67"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="27"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
@@ -6538,15 +6553,15 @@
     </row>
     <row r="89" ht="18.75" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="67"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="68"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="69"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -6608,6 +6623,7 @@
     </row>
     <row r="91" ht="18.75" customHeight="1">
       <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -6642,6 +6658,7 @@
     </row>
     <row r="92" ht="18.75" customHeight="1">
       <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -6676,6 +6693,7 @@
     </row>
     <row r="93" ht="18.75" customHeight="1">
       <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -6710,6 +6728,7 @@
     </row>
     <row r="94" ht="18.75" customHeight="1">
       <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -36783,87 +36802,79 @@
       <c r="AG955" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="175">
+  <mergeCells count="174">
     <mergeCell ref="I65:I69"/>
     <mergeCell ref="J65:J69"/>
     <mergeCell ref="B65:B69"/>
     <mergeCell ref="C65:C69"/>
     <mergeCell ref="D65:D69"/>
     <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
     <mergeCell ref="G65:G69"/>
     <mergeCell ref="H65:H69"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="I70:I74"/>
+    <mergeCell ref="J70:J74"/>
     <mergeCell ref="B70:B74"/>
     <mergeCell ref="C70:C74"/>
     <mergeCell ref="D70:D74"/>
     <mergeCell ref="E70:E74"/>
     <mergeCell ref="F70:F74"/>
     <mergeCell ref="G70:G74"/>
-    <mergeCell ref="H75:H79"/>
+    <mergeCell ref="H70:H74"/>
     <mergeCell ref="I75:I79"/>
+    <mergeCell ref="J75:J79"/>
     <mergeCell ref="B75:B79"/>
     <mergeCell ref="C75:C79"/>
     <mergeCell ref="D75:D79"/>
     <mergeCell ref="E75:E79"/>
     <mergeCell ref="F75:F79"/>
     <mergeCell ref="G75:G79"/>
-    <mergeCell ref="H70:H74"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="H85:H89"/>
-    <mergeCell ref="I85:I89"/>
-    <mergeCell ref="G85:G89"/>
-    <mergeCell ref="J85:J89"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="H75:H79"/>
+    <mergeCell ref="I80:I84"/>
+    <mergeCell ref="J80:J84"/>
     <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B90:B94"/>
     <mergeCell ref="C80:C84"/>
     <mergeCell ref="D80:D84"/>
     <mergeCell ref="E80:E84"/>
     <mergeCell ref="F80:F84"/>
-    <mergeCell ref="F85:F89"/>
+    <mergeCell ref="G80:G84"/>
+    <mergeCell ref="H80:H84"/>
     <mergeCell ref="I20:I24"/>
     <mergeCell ref="J20:J24"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
     <mergeCell ref="F20:F24"/>
     <mergeCell ref="G20:G24"/>
     <mergeCell ref="H20:H24"/>
-    <mergeCell ref="E20:E24"/>
     <mergeCell ref="I25:I29"/>
     <mergeCell ref="J25:J29"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="C25:C29"/>
     <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
     <mergeCell ref="F25:F29"/>
     <mergeCell ref="G25:G29"/>
     <mergeCell ref="H25:H29"/>
-    <mergeCell ref="E25:E29"/>
     <mergeCell ref="I30:I34"/>
     <mergeCell ref="J30:J34"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="I70:I74"/>
-    <mergeCell ref="J70:J74"/>
-    <mergeCell ref="J75:J79"/>
-    <mergeCell ref="G80:G84"/>
-    <mergeCell ref="H80:H84"/>
-    <mergeCell ref="I80:I84"/>
-    <mergeCell ref="J80:J84"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I85:I89"/>
+    <mergeCell ref="J85:J89"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="F85:F89"/>
+    <mergeCell ref="G85:G89"/>
+    <mergeCell ref="H85:H89"/>
     <mergeCell ref="F5:F9"/>
     <mergeCell ref="G5:G9"/>
     <mergeCell ref="H5:H9"/>
@@ -36899,12 +36910,15 @@
     <mergeCell ref="J35:J39"/>
     <mergeCell ref="B35:B39"/>
     <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
     <mergeCell ref="F35:F39"/>
     <mergeCell ref="G35:G39"/>
     <mergeCell ref="H35:H39"/>
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="C40:C44"/>
     <mergeCell ref="D40:D44"/>
+    <mergeCell ref="E40:E44"/>
     <mergeCell ref="F40:F44"/>
     <mergeCell ref="G40:G44"/>
     <mergeCell ref="H40:H44"/>
@@ -36932,6 +36946,7 @@
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="C45:C49"/>
     <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
     <mergeCell ref="F45:F49"/>
     <mergeCell ref="G45:G49"/>
     <mergeCell ref="H45:H49"/>
@@ -36940,6 +36955,7 @@
     <mergeCell ref="B50:B54"/>
     <mergeCell ref="C50:C54"/>
     <mergeCell ref="D50:D54"/>
+    <mergeCell ref="E50:E54"/>
     <mergeCell ref="F50:F54"/>
     <mergeCell ref="G50:G54"/>
     <mergeCell ref="H50:H54"/>
@@ -36948,6 +36964,7 @@
     <mergeCell ref="B55:B59"/>
     <mergeCell ref="C55:C59"/>
     <mergeCell ref="D55:D59"/>
+    <mergeCell ref="E55:E59"/>
     <mergeCell ref="F55:F59"/>
     <mergeCell ref="G55:G59"/>
     <mergeCell ref="H55:H59"/>
@@ -36956,6 +36973,7 @@
     <mergeCell ref="B60:B64"/>
     <mergeCell ref="C60:C64"/>
     <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
     <mergeCell ref="F60:F64"/>
     <mergeCell ref="G60:G64"/>
     <mergeCell ref="H60:H64"/>
